--- a/libertadores/datasets_liberta/resultados_fase_3.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_3.xlsx
@@ -575,14 +575,8 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -595,14 +589,8 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -615,14 +603,8 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -635,14 +617,8 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_3.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_3.xlsx
@@ -35,16 +35,16 @@
     <t>Visitante_Pontos</t>
   </si>
   <si>
-    <t>Jogo 1</t>
-  </si>
-  <si>
-    <t>Jogo 2</t>
-  </si>
-  <si>
-    <t>Jogo 3</t>
-  </si>
-  <si>
-    <t>Jogo 4</t>
+    <t>Jogo 1 (JG1)</t>
+  </si>
+  <si>
+    <t>Jogo 2 (JG2)</t>
+  </si>
+  <si>
+    <t>Jogo 3 (JG3)</t>
+  </si>
+  <si>
+    <t>Jogo 4 (JG4)</t>
   </si>
   <si>
     <t>Analove10 ITAQUI GRANDE!!</t>

--- a/libertadores/datasets_liberta/resultados_fase_3.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_3.xlsx
@@ -575,8 +575,14 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2">
+        <v>61.60009765625</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>75.39990234375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -589,8 +595,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>81.89990234375</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>74.2001953125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -603,8 +615,14 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>64.2998046875</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
+      </c>
+      <c r="F4">
+        <v>75.10009765625</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -617,8 +635,14 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
